--- a/Activity 1.3.xlsx
+++ b/Activity 1.3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>team</t>
   </si>
@@ -134,6 +134,9 @@
     <t>Sheffield United</t>
   </si>
   <si>
+    <t>The boxplot indicates that while the football teams have similar win-loss records, as reflected in the similar medians for wins, losses, and draws, their goals scored and conceded vary significantly. Notably, one team scored significantly more goals than the others, highlighting a key outlier in the goals scored data.</t>
+  </si>
+  <si>
     <t>Nottingham Forest</t>
   </si>
   <si>
@@ -153,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -173,6 +176,18 @@
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Google Sans Mono&quot;"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -195,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -207,6 +222,12 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -324,11 +345,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1228738860"/>
-        <c:axId val="2033484265"/>
+        <c:axId val="409546294"/>
+        <c:axId val="272006128"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="1228738860"/>
+        <c:axId val="409546294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -341,7 +362,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="1" sz="3000">
+                  <a:defRPr b="1" sz="1600">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -349,7 +370,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" sz="3000">
+                  <a:rPr b="1" sz="1600">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -380,10 +401,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2033484265"/>
+        <c:crossAx val="272006128"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2033484265"/>
+        <c:axId val="272006128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +437,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="1" i="1" sz="3600">
+                  <a:defRPr b="1" i="1" sz="1600">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -424,7 +445,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="1" i="1" sz="3600">
+                  <a:rPr b="1" i="1" sz="1600">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -458,7 +479,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228738860"/>
+        <c:crossAx val="409546294"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -471,7 +492,7 @@
           <a:pPr lvl="0">
             <a:defRPr b="0">
               <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
+                <a:srgbClr val="E69138"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
@@ -494,264 +515,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="1" sz="3600">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="3600">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Histogram</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PremierLeagueSeason2024.csv!$B$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>PremierLeagueSeason2024.csv!$A$2:$A$25</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PremierLeagueSeason2024.csv!$B$2:$B$25</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PremierLeagueSeason2024.csv!$C$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>PremierLeagueSeason2024.csv!$A$2:$A$25</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PremierLeagueSeason2024.csv!$C$2:$C$25</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:overlap val="100"/>
-        <c:axId val="1597194877"/>
-        <c:axId val="1559824125"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1597194877"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="1" sz="2400">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="2400">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>team</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1559824125"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1559824125"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1597194877"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" sz="1800">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -759,7 +523,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0">
+              <a:rPr b="0" sz="1800">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -898,11 +662,11 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="1571088391"/>
-        <c:axId val="1055725765"/>
+        <c:axId val="2006806582"/>
+        <c:axId val="1907232560"/>
       </c:stockChart>
       <c:dateAx>
-        <c:axId val="1571088391"/>
+        <c:axId val="2006806582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,10 +717,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1055725765"/>
+        <c:crossAx val="1907232560"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1055725765"/>
+        <c:axId val="1907232560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +795,384 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1571088391"/>
+        <c:crossAx val="2006806582"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>goals_scored, goals_conceded, wins, draws, losses…</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$B$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$A$2:$A$25</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PremierLeagueSeason2024.csv!$B$2:$B$25</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$A$2:$A$25</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PremierLeagueSeason2024.csv!$C$2:$C$25</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$D$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$A$2:$A$25</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PremierLeagueSeason2024.csv!$D$2:$D$25</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$E$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$A$2:$A$25</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PremierLeagueSeason2024.csv!$E$2:$E$25</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$F$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$A$2:$A$25</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PremierLeagueSeason2024.csv!$F$2:$F$25</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$G$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>PremierLeagueSeason2024.csv!$A$2:$A$25</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PremierLeagueSeason2024.csv!$G$2:$G$25</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="1880298088"/>
+        <c:axId val="1705419809"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1880298088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>team</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1705419809"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1705419809"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1880298088"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1063,10 +1204,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8591550" cy="5324475"/>
+    <xdr:ext cx="6743700" cy="4191000"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
@@ -1086,12 +1227,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8591550" cy="5848350"/>
+    <xdr:ext cx="6743700" cy="4191000"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
@@ -1111,12 +1252,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6191250" cy="3838575"/>
+    <xdr:ext cx="6743700" cy="4191000"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
@@ -2109,10 +2250,13 @@
         <v>21.0</v>
       </c>
       <c r="M22" s="3"/>
+      <c r="P22" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
         <v>49.0</v>
@@ -2142,7 +2286,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>52.0</v>
@@ -2172,7 +2316,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <v>35.0</v>
@@ -2267,10 +2411,9 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48">
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49">
-      <c r="M49" s="3"/>
+      <c r="A48" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="50">
       <c r="M50" s="3"/>
@@ -2285,27 +2428,27 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
       <c r="M54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
       <c r="M55" s="3"/>
     </row>
     <row r="56">
@@ -2324,12 +2467,27 @@
       <c r="M60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
       <c r="M61" s="3"/>
     </row>
     <row r="62">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
       <c r="M62" s="3"/>
     </row>
     <row r="63">
@@ -2402,6 +2560,9 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86">
+      <c r="A86" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="M86" s="3"/>
     </row>
     <row r="87">
@@ -2423,12 +2584,27 @@
       <c r="M92" s="3"/>
     </row>
     <row r="93">
-      <c r="A93" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
       <c r="M93" s="3"/>
     </row>
     <row r="94">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
       <c r="M94" s="3"/>
     </row>
     <row r="95">
@@ -5150,9 +5326,10 @@
       <c r="M1000" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A61:I62"/>
-    <mergeCell ref="A93:I94"/>
+  <mergeCells count="3">
+    <mergeCell ref="A48:N49"/>
+    <mergeCell ref="A86:I87"/>
+    <mergeCell ref="P22:V23"/>
   </mergeCells>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -5833,7 +6010,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
         <v>49.0</v>
@@ -5863,7 +6040,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>52.0</v>
@@ -5893,7 +6070,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <v>35.0</v>
@@ -6006,27 +6183,27 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
       <c r="M54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
       <c r="M55" s="3"/>
     </row>
     <row r="56">
@@ -6045,27 +6222,27 @@
       <c r="M60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
       <c r="M61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
       <c r="M62" s="3"/>
     </row>
     <row r="63">
